--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,10 @@
   <si>
     <t>冒險開始時，場景會往前冒險，遇到寶箱會取得寶物，遇到怪物會跟怪物戰鬥，殺死怪物可以選擇是否繼續前進或是結束冒險。
 完成冒險可以獲得寶藏，中途放棄只會結算路途獲得的戰利品，如果遇到怪物才選擇逃跑會喪失旅途中的所有戰利品，若團隊被怪物殺光而沒有逃跑不僅會喪失旅途中的所有戰利品，也會隨機丟失腳色身上的一件裝備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1370,36 +1374,41 @@
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="132" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" ht="132" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腳色天生擁有的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色後天學習的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>為%數，乘以腳色防禦值後成為防禦力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,10 +259,6 @@
   </si>
   <si>
     <t>特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色天生擁有的1~3個特徵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -348,14 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可在旅店招募隊友，新隊友會取代舊隊友，但繼承等級、武器、裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在旅店租防，提升腳色回血速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腳色復活、腳色祝福、腳色補血</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,10 +353,6 @@
   </si>
   <si>
     <t>可對武器進行神兵煉化(強化基礎數值+額外效果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可加持(強化基礎數值)與附魔(附加額外效果)裝備與武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,6 +386,42 @@
   </si>
   <si>
     <t>逃跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可加持(強化基礎數值)與附魔(附加額外效果)裝備與武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入訓練所等同於掛機練等，但訓練中的腳色不會回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習技能、升級技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的1~3個特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色後天學習的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在旅店租防，提升腳色回血速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在旅店招募隊友，新隊友會取代舊隊友，但繼承等級、武器、裝備)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -812,13 +824,14 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="9" width="26.875" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -826,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -838,10 +851,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>7</v>
@@ -859,7 +872,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>16</v>
@@ -867,19 +880,19 @@
     </row>
     <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -894,16 +907,16 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>12</v>
@@ -911,25 +924,25 @@
     </row>
     <row r="4" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
@@ -944,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>12</v>
@@ -955,25 +968,25 @@
     </row>
     <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -988,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>12</v>
@@ -999,25 +1012,25 @@
     </row>
     <row r="6" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1038,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
@@ -1046,22 +1059,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
@@ -1082,30 +1095,30 @@
         <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
@@ -1126,7 +1139,7 @@
         <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
@@ -1134,22 +1147,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
@@ -1170,176 +1183,176 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1353,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1364,52 +1377,52 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1420,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1433,77 +1446,92 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
     <sheet name="冒險" sheetId="3" r:id="rId2"/>
     <sheet name="商店" sheetId="2" r:id="rId3"/>
+    <sheet name="技能" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,14 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抗壓力=(腳色抗壓值+裝備抗壓值)*裝備強度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵抗力=(腳色防禦值+裝備防禦值)*裝備抵抗強度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理傷害運算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精神殺傷力=(腳色精神攻擊值+裝備精神攻擊值)*(技能強度)*(目標損失的生命/目標最大生命)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,15 +295,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理傷害值=(物理殺傷力*100)/(100+抵抗力)*武器相剋率)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精神影響50%造成的殺傷力，精神滿時，傷害為100%，精神為0時則只有原來一半的傷害且腳色崩潰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理殺傷力= (腳色攻擊值+裝備攻擊值) * (技能強度) * ((1+(目前精神/最大精神))/2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,6 +403,67 @@
   </si>
   <si>
     <t>可在旅店招募隊友，新隊友會取代舊隊友，但繼承等級、武器、裝備)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵抗力=(腳色防禦值+裝備防禦值+效果防禦加值) *(效果防禦乘值)*(裝備抵抗強度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理殺傷力= (腳色攻擊值+裝備攻擊值+效果攻擊加值) *(效果攻擊乘值) * (技能強度) * ((1+(目前精神/最大精神))/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神殺傷力=(腳色精神攻擊值+裝備精神攻擊值+效果精神攻擊加值) *(效果精神攻擊乘值)*(技能強度)*(目標損失的生命/目標最大生命)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗壓力=(腳色抗壓值+裝備抗壓值+效果抗壓加值) *(效果抗壓乘值)* (裝備強度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害值=(物理殺傷力*100)/(100+抵抗力)*武器相剋率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
+2.腳色同時行動時，誰先動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持續傷害類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰弱類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理持續傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神持續傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理衰弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神衰弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -831,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -842,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -854,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>7</v>
@@ -872,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>16</v>
@@ -880,13 +922,13 @@
     </row>
     <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -901,22 +943,22 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>12</v>
@@ -942,7 +984,7 @@
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
@@ -986,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -1030,7 +1072,7 @@
         <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1074,7 +1116,7 @@
         <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
@@ -1118,7 +1160,7 @@
         <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
@@ -1162,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
@@ -1246,10 +1288,10 @@
     </row>
     <row r="18" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,37 +1349,37 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,12 +1389,12 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1377,52 +1419,52 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1478,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1446,96 +1488,158 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,19 +451,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理持續傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神持續傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理衰弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精神衰弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalWeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindWeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1584,57 +1608,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>劍、鞭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>袍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上半身防具(主防禦防具)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器1(主攻擊武器)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +288,184 @@
   </si>
   <si>
     <t>精神影響50%造成的殺傷力，精神滿時，傷害為100%，精神為0時則只有原來一半的傷害且腳色崩潰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修道院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險旅店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色復活、腳色祝福、腳色補血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅店有公佈欄，會顯示排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器職人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可購買/販賣武器與裝備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可對武器進行神兵煉化(強化基礎數值+額外效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任務會館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可接取與回報任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可接取頭目懸賞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出發冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可加持(強化基礎數值)與附魔(附加額外效果)裝備與武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入訓練所等同於掛機練等，但訓練中的腳色不會回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的1~3個特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色後天學習的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在旅店租防，提升腳色回血速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在旅店招募隊友，新隊友會取代舊隊友，但繼承等級、武器、裝備)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵抗力=(腳色防禦值+裝備防禦值+效果防禦加值) *(效果防禦乘值)*(裝備抵抗強度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理殺傷力= (腳色攻擊值+裝備攻擊值+效果攻擊加值) *(效果攻擊乘值) * (技能強度) * ((1+(目前精神/最大精神))/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神殺傷力=(腳色精神攻擊值+裝備精神攻擊值+效果精神攻擊加值) *(效果精神攻擊乘值)*(技能強度)*(目標損失的生命/目標最大生命)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗壓力=(腳色抗壓值+裝備抗壓值+效果抗壓加值) *(效果抗壓乘值)* (裝備強度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害值=(物理殺傷力*100)/(100+抵抗力)*武器相剋率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
+2.腳色同時行動時，誰先動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持續傷害類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰弱類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理衰弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神衰弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalWeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindWeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險開始時，場景會往前冒險，遇到寶箱會取得寶物，遇到怪物會跟怪物戰鬥，殺死怪物可以選擇是否繼續前進或是結束冒險。
+完成冒險可以獲得寶藏，中途放棄只會結算路途獲得的戰利品，如果遇到怪物才選擇逃跑會喪失旅途中的所有戰利品，若團隊被怪物殺光而沒有逃跑不僅會喪失旅途中的所有戰利品，也會隨機丟失腳色身上的一件裝備</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,185 +479,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修道院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒險旅店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色復活、腳色祝福、腳色補血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅店有公佈欄，會顯示排行榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器職人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可購買/販賣武器與裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可對武器進行神兵煉化(強化基礎數值+額外效果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任務會館</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可接取與回報任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可接取頭目懸賞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>營火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出發冒險</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒險</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒險開始時，場景會往前冒險，遇到寶箱會取得寶物，遇到怪物會跟怪物戰鬥，殺死怪物可以選擇是否繼續前進或是結束冒險。
-完成冒險可以獲得寶藏，中途放棄只會結算路途獲得的戰利品，如果遇到怪物才選擇逃跑會喪失旅途中的所有戰利品，若團隊被怪物殺光而沒有逃跑不僅會喪失旅途中的所有戰利品，也會隨機丟失腳色身上的一件裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可加持(強化基礎數值)與附魔(附加額外效果)裝備與武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訓練所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>進入訓練所等同於掛機練等，但訓練中的腳色不會回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學習技能、升級技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腳色天生擁有的1~3個特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色天生擁有的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色後天學習的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在旅店租防，提升腳色回血速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在旅店招募隊友，新隊友會取代舊隊友，但繼承等級、武器、裝備)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵抗力=(腳色防禦值+裝備防禦值+效果防禦加值) *(效果防禦乘值)*(裝備抵抗強度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理殺傷力= (腳色攻擊值+裝備攻擊值+效果攻擊加值) *(效果攻擊乘值) * (技能強度) * ((1+(目前精神/最大精神))/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神殺傷力=(腳色精神攻擊值+裝備精神攻擊值+效果精神攻擊加值) *(效果精神攻擊乘值)*(技能強度)*(目標損失的生命/目標最大生命)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗壓力=(腳色抗壓值+裝備抗壓值+效果抗壓加值) *(效果抗壓乘值)* (裝備強度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理傷害值=(物理殺傷力*100)/(100+抵抗力)*武器相剋率)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
-2.腳色同時行動時，誰先動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持續傷害類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衰弱類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理衰弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神衰弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MindDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalWeak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MindWeak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MindControl</t>
+    <t>劍、鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上半身防具(主防禦防具)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -573,6 +573,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -897,7 +900,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -908,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -917,10 +920,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>7</v>
@@ -938,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>16</v>
@@ -946,19 +949,19 @@
     </row>
     <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -967,22 +970,22 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>12</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="4" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -999,16 +1002,16 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1043,16 +1046,16 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -1078,7 +1081,7 @@
     </row>
     <row r="6" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1090,13 +1093,13 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1120,78 +1123,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1207,7 @@
       <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1219,16 +1222,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
@@ -1259,7 +1262,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -1307,15 +1310,15 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1337,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1351,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,63 +1365,63 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1443,52 +1446,52 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1505,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1512,92 +1515,92 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1610,73 +1613,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,10 @@
   </si>
   <si>
     <t>上半身防具(主防禦防具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1611,74 +1615,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>110</v>
       </c>
     </row>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,10 @@
   </si>
   <si>
     <t>武器技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿武器時會獲得武器技能，腳色可以拿什麼武器類型天生就固定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1615,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1628,66 +1632,71 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>110</v>
       </c>
     </row>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下半身防具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>足部防具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,18 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>為%數，乘以腳色防禦值後成為防禦力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裝備後腳色學習到的被動效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裝備後腳色會發動的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>體力值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>頭部防具(主抗壓防具)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器1(主攻擊武器)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,18 +340,6 @@
   </si>
   <si>
     <t>進入訓練所等同於掛機練等，但訓練中的腳色不會回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色天生擁有的1~3個特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色天生擁有的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色後天學習的主動技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,15 +459,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上半身防具(主防禦防具)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拿武器時會獲得武器技能，腳色可以拿什麼武器類型天生就固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具(主防禦防具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為%數，乘以腳色防禦值後成為防禦力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色抗壓值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為%數，乘以腳色抗壓值後成為抗壓力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備後腳色會發動的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭部防具(主抗壓防具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色精神值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色的攻擊值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
+2.腳色同時行動時，誰先動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負面狀態的減免時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色防禦值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色後天學習的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的1~3個特徵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -581,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -885,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -903,12 +937,13 @@
     <col min="8" max="9" width="26.875" customWidth="1"/>
     <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="12" max="12" width="29.875" customWidth="1"/>
     <col min="13" max="13" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -916,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -928,10 +963,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>7</v>
@@ -946,30 +981,30 @@
         <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -978,22 +1013,22 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>12</v>
@@ -1001,25 +1036,25 @@
     </row>
     <row r="4" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
@@ -1034,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>12</v>
@@ -1045,25 +1080,25 @@
     </row>
     <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -1078,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>12</v>
@@ -1089,25 +1124,25 @@
     </row>
     <row r="6" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
+        <v>111</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1128,152 +1163,116 @@
         <v>12</v>
       </c>
       <c r="N6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1281,12 +1280,12 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1294,142 +1293,134 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1454,52 +1445,52 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1523,92 +1514,92 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1621,83 +1612,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
     <sheet name="冒險" sheetId="3" r:id="rId2"/>
     <sheet name="商店" sheetId="2" r:id="rId3"/>
     <sheet name="技能" sheetId="4" r:id="rId4"/>
+    <sheet name="想法" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +534,22 @@
   </si>
   <si>
     <t>腳色天生擁有的1~3個特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣告解鎖Buffer獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上方隨時出現腳色對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色隨節奏抖動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1696,4 +1713,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,14 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器1(主攻擊武器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器2(主攻擊武器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抵抗物理傷害的強度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,14 +241,6 @@
   </si>
   <si>
     <t>團隊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老大隊輔助隊友時，被輔助的友方恢復10%精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老大對敵人攻擊時，全體精神恢復5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -437,8 +421,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冒險開始時，場景會往前冒險，遇到寶箱會取得寶物，遇到怪物會跟怪物戰鬥，殺死怪物可以選擇是否繼續前進或是結束冒險。
-完成冒險可以獲得寶藏，中途放棄只會結算路途獲得的戰利品，如果遇到怪物才選擇逃跑會喪失旅途中的所有戰利品，若團隊被怪物殺光而沒有逃跑不僅會喪失旅途中的所有戰利品，也會隨機丟失腳色身上的一件裝備</t>
+    <t>學習技能、升級技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍、鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿武器時會獲得武器技能，腳色可以拿什麼武器類型天生就固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具(主防禦防具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為%數，乘以腳色防禦值後成為防禦力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色抗壓值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為%數，乘以腳色抗壓值後成為抗壓力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭部防具(主抗壓防具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色精神值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色的攻擊值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
+2.腳色同時行動時，誰先動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負面狀態的減免時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色防禦值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色後天學習的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣告解鎖Buffer獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上方隨時出現腳色對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色隨節奏抖動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器1(主攻擊武器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器2(主攻擊武器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的1~3個特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備後腳色會發動的主動技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,104 +540,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>學習技能、升級技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劍、鞭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿武器時會獲得武器技能，腳色可以拿什麼武器類型天生就固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防具(主防禦防具)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為%數，乘以腳色防禦值後成為防禦力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色抗壓值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為%數，乘以腳色抗壓值後成為抗壓力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色體力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備後腳色會發動的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頭部防具(主抗壓防具)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色體力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色精神值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色的攻擊值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
-2.腳色同時行動時，誰先動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>負面狀態的減免時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色防禦值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色後天學習的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色天生擁有的主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色天生擁有的1~3個特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廣告解鎖Buffer獎勵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上方隨時出現腳色對話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色隨節奏抖動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
+    <t>冒險開始時，場景會往前冒險，遇到寶箱會取得寶物，遇到怪物會跟怪物戰鬥，殺死怪物可以選擇是否繼續前進或是結束冒險。
+完成冒險可以獲得寶藏，中途放棄只會結算路途獲得的戰利品，如果遇到怪物才選擇逃跑會喪失旅途中的所有戰利品，若團隊被怪物殺光而沒有逃跑不僅會喪失旅途中的所有戰利品，也會隨機丟失腳色身上的一件裝備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大隊輔助隊友時，被輔助的友方恢復10%精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大對敵人攻擊時，全體精神恢復5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1\0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -960,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -971,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -983,7 +987,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>7</v>
@@ -1001,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>15</v>
@@ -1009,19 +1013,19 @@
     </row>
     <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -1030,22 +1034,22 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
         <v>125</v>
-      </c>
-      <c r="K3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>126</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>12</v>
@@ -1053,10 +1057,10 @@
     </row>
     <row r="4" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1065,13 +1069,13 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
@@ -1086,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>12</v>
@@ -1097,7 +1101,7 @@
     </row>
     <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1115,7 +1119,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -1130,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>12</v>
@@ -1141,7 +1145,7 @@
     </row>
     <row r="6" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1150,16 +1154,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1185,43 +1189,43 @@
     </row>
     <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
       <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>12</v>
@@ -1247,7 +1251,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
@@ -1278,7 +1282,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1331,10 +1335,10 @@
     </row>
     <row r="17" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,57 +1391,57 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1451,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1462,52 +1466,52 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1531,92 +1535,92 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1637,75 +1641,75 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1719,30 +1723,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
     <sheet name="冒險" sheetId="3" r:id="rId2"/>
-    <sheet name="商店" sheetId="2" r:id="rId3"/>
-    <sheet name="技能" sheetId="4" r:id="rId4"/>
-    <sheet name="想法" sheetId="5" r:id="rId5"/>
+    <sheet name="團隊" sheetId="6" r:id="rId3"/>
+    <sheet name="商店" sheetId="2" r:id="rId4"/>
+    <sheet name="技能" sheetId="4" r:id="rId5"/>
+    <sheet name="想法" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
   <si>
     <t>對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影響精神攻擊的強度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>負面狀態的減免時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +42,6 @@
   </si>
   <si>
     <t>抗壓值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>負重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,22 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>團隊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老大標籤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老大戰鬥時會喊話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老大會站第一個，貢獻值最低的會站最後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精神影響50%造成的殺傷力，精神滿時，傷害為100%，精神為0時則只有原來一半的傷害且腳色崩潰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,14 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冒險</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可加持(強化基礎數值)與附魔(附加額外效果)裝備與武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,6 +322,118 @@
   </si>
   <si>
     <t>物理傷害值=(物理殺傷力*100)/(100+抵抗力)*武器相剋率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持續傷害類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰弱類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理衰弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神衰弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalWeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindWeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MindControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習技能、升級技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍、鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿武器時會獲得武器技能，腳色可以拿什麼武器類型天生就固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具(主防禦防具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為%數，乘以腳色防禦值後成為防禦力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色抗壓值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為%數，乘以腳色抗壓值後成為抗壓力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭部防具(主抗壓防具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色精神值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為數值，增加腳色的攻擊值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,123 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持續傷害類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衰弱類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理衰弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神衰弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MindDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalWeak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MindWeak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MindControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學習技能、升級技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劍、鞭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿武器時會獲得武器技能，腳色可以拿什麼武器類型天生就固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防具(主防禦防具)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為%數，乘以腳色防禦值後成為防禦力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色抗壓值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為%數，乘以腳色抗壓值後成為抗壓力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色體力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頭部防具(主抗壓防具)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色體力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色精神值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為數值，增加腳色的攻擊值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
-2.腳色同時行動時，誰先動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>負面狀態的減免時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,7 +462,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>廣告解鎖Buffer獎勵</t>
+    <t>腳色隨節奏抖動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器1(主攻擊武器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器2(主攻擊武器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色天生擁有的1~3個特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備後腳色會發動的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1\0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣告解鎖物品使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,27 +498,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腳色隨節奏抖動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器1(主攻擊武器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器2(主攻擊武器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色天生擁有的1~3個特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備後腳色會發動的主動技能</t>
+    <t>戰鬥技能用節奏遊戲的方式施放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -540,20 +512,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冒險開始時，場景會往前冒險，遇到寶箱會取得寶物，遇到怪物會跟怪物戰鬥，殺死怪物可以選擇是否繼續前進或是結束冒險。
-完成冒險可以獲得寶藏，中途放棄只會結算路途獲得的戰利品，如果遇到怪物才選擇逃跑會喪失旅途中的所有戰利品，若團隊被怪物殺光而沒有逃跑不僅會喪失旅途中的所有戰利品，也會隨機丟失腳色身上的一件裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老大隊輔助隊友時，被輔助的友方恢復10%精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老大對敵人攻擊時，全體精神恢復5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1\0</t>
+    <t>為數值，增加腳色精神值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隊伍中有一個人會當上老大，老大會有領導風格影響戰鬥，且戰鬥時會在上方出現對話框喊話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
+2.腳色同時行動時，誰先動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響精神攻擊的強度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在旅店消耗金錢打聽情報，情報內容就像教學例如：
+JOJO冒險野豬：據說長捲角的怪物戰鬥後都會偷走你財富
+草鞋魯夫：冒險中會遭遇的事件分成3種，遇敵：遭遇敵人、機會：可選擇是否觸發的內容、命運：強制觸發的內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險開始時，場景會往前冒險並標示出距離終點的進度，進度條上會有一些節點代表著事件，事件由遇敵、機會與命運組成。完成冒險會獲得額外的寶藏與報酬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇事件：事件有遇敵、機會、命運三種
+1.遇敵：遭遇敵人進行戰鬥或逃跑，逃跑則結束冒險並失去之前獲得的戰利品，而選擇戰鬥會依照負重高低來決定攻擊順序，負重越輕越先進行一次武器攻擊(如果是雙武器，會以較輕的那把武器進行攻擊，如果重量一樣則隨機)，殺死怪物會得到寶物，若是被怪物滅團會喪失戰利品且隨機丟失腳色身上一件裝備或丟失金錢並結束冒險。
+2.機會：遇到一個封印，可以選擇打不打開，打開有機會觸發好的Buffer或取得寶箱、也可能觸發壞的Buffer或遭遇怪物
+3.命運：有被怪物伏擊、撿到寶箱、取得Buffer
+結束事件：結束事件可選擇是否繼續冒險，是的話繼續，否的話結算戰利品並結束冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹活了!小子們：老大發動技能時，全體精神恢復5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還不跟上!：老大使用武器攻擊時，全體主動技能CD降低0.5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵貴乎神速：強制先攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>領導戰術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果開始遇敵時，負重影響攻擊順序為P2-&gt;P1-&gt;E1-&gt;E2-&gt;P3-&gt;E3，那麼P2先攻擊，再來是P1(約1個時間單位後)，以此類推，全部攻擊完後才開始算CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禿鷹：傾向攻擊血量最低的敵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血債血還：傾向攻擊上一個攻擊自己的敵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉獻：傾向優先成為被攻擊的目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲諷：攻擊敵人後，此敵人會傾向攻擊自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血：血量越低攻擊力越高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個腳色都有個人風格，風格會影響個人戰鬥表現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷靜：不會受到任何目標轉移效果的影響</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -639,6 +697,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -942,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -964,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -972,476 +1033,476 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1453,65 +1514,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.375" customWidth="1"/>
+    <col min="2" max="2" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="82.5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="132" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>58</v>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1522,10 +1557,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="132" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1535,47 +1665,47 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1583,44 +1713,49 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>68</v>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1641,75 +1776,75 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1719,34 +1854,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,16 @@
     <sheet name="團隊" sheetId="6" r:id="rId3"/>
     <sheet name="商店" sheetId="2" r:id="rId4"/>
     <sheet name="狀態" sheetId="4" r:id="rId5"/>
-    <sheet name="想法" sheetId="5" r:id="rId6"/>
-    <sheet name="攻擊" sheetId="7" r:id="rId7"/>
-    <sheet name="行程表" sheetId="8" r:id="rId8"/>
+    <sheet name="攻擊" sheetId="7" r:id="rId6"/>
+    <sheet name="行程表" sheetId="8" r:id="rId7"/>
+    <sheet name="想法" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
   <si>
     <t>皮甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1\0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +212,6 @@
   </si>
   <si>
     <t>上方隨時出現腳色對話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰鬥技能用節奏遊戲的方式施放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>開始時用對話決定起始腳色屬性天賦特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>隨機關卡王隨機每個人的冒險日誌不一樣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,14 +328,6 @@
   </si>
   <si>
     <t>擊中：造成100%傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閃躲：造成50%傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迴避：造成0%傷害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -593,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻擊後會有4種結果，分別是致命打擊、擊中、閃躲、迴避，某些攻擊附帶的效果會要求是否有擊中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等級</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,11 +618,6 @@
   </si>
   <si>
     <t>堅持下去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色血量顯示
-腳色ICON狀態表現(被攻擊、死亡)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,6 +661,173 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>腳色血量顯示
+Unity APK肥大原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊類型分為兩種，分別為武器攻擊與技能攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器攻擊(被動)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻擊(主動)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備武器會使用該武器的攻擊，為被動觸發，CD為該武器的CD秒數加上負重影響。兩手可以個裝兩把武器，沒裝備視同空手攻擊。如果拿了一把CD5的刀與一把CD8的斧頭，且腳色總負重為50%，則腳色分別每7.5(5+5*0.5)使用刀攻擊，每12(8+8*0.5)使用斧頭攻擊一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色透過學習得來的主動施放技能，技能CD為該技能CD秒數加上負重影響。與武器攻擊差別在於，CD到要主動點擊施放，且太晚按會降低強度。
+根據施放技能時機，會有3種結果，分別為精準、優秀、普通，精準為的120%(傷害/治癒)加成、優秀為110%(傷害/治癒)加成、普通為100%(傷害/治癒)加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥技能用節奏遊戲的方式施放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始時用對話決定起始腳色屬性天賦特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴避減傷：造成50%傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊後會有4種結果，分別是致命打擊、擊中、迴避減傷、閃避，某些攻擊附帶的效果會要求是否有擊中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閃避：造成0%傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器攻擊與技能攻擊規劃
+被攻擊ICON表現設計
+數字顯示設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>武器攻擊與技能攻擊規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">施放主動技能
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色ICON狀態表現(被攻擊、死亡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腳色血量顯示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腳色ICON狀態表現(被攻擊、死亡)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unity APK肥大原因</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -698,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -760,8 +898,24 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +946,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -805,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -822,6 +982,10 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1128,7 +1292,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1153,10 +1317,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1166,215 +1330,215 @@
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1388,20 +1552,20 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1409,7 +1573,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1417,22 +1581,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1443,7 +1607,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -1452,15 +1616,15 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1471,16 +1635,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1">
@@ -1522,17 +1686,17 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1711,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1558,25 +1722,25 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="148.5">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1600,77 +1764,77 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="132">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1879,7 @@
     </row>
     <row r="5" spans="1:1" ht="66">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="2" customFormat="1">
@@ -1745,7 +1909,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="2" customFormat="1">
@@ -1799,7 +1963,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1876,47 +2040,72 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="82.5">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="99">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="12" customFormat="1">
+      <c r="A5" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>74</v>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1928,50 +2117,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1984,13 +2133,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33">
@@ -1998,37 +2147,53 @@
         <v>42304</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="67.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="77.25">
       <c r="A3" s="8">
         <v>42305</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
+      <c r="B3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="66">
       <c r="A4" s="8">
         <v>42306</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33">
       <c r="A5" s="8">
         <v>42307</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
         <v>42308</v>
       </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9">
@@ -2593,6 +2758,58 @@
     <row r="119" spans="1:1">
       <c r="A119" s="8">
         <v>42421</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="14805" windowHeight="7875" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
   <si>
     <t>皮甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精神傷害運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,18 +116,6 @@
   </si>
   <si>
     <t>可在旅店招募隊友，新隊友會取代舊隊友，但繼承等級、武器、裝備)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵抗力=(腳色防禦值+裝備防禦值+效果防禦加值) *(效果防禦乘值)*(裝備抵抗強度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理殺傷力= (腳色攻擊值+裝備攻擊值+效果攻擊加值) *(效果攻擊乘值) * (技能強度) * ((1+(目前精神/最大精神))/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理傷害值=(物理殺傷力*100)/(100+抵抗力)*武器相剋率)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,18 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抗壓力=(腳色抗壓%數+裝備抗壓%數+效果抗壓%數)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神殺傷力=技能精神傷害%數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神傷害值=精神殺傷力-抗壓力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>隨機關卡王隨機每個人的冒險日誌不一樣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,31 +311,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影響心智與心智恢復</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信仰(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>體質(主要屬性)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>力量(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗壓(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警戒(主要屬性)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,24 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心智值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為0~100，心智影響50%造成的殺傷力，心智滿時，傷害為100%，心智為0時則只有原來一半的傷害且腳色崩潰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心智恢復</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.戰鬥中為每次此腳色動作時恢復的心智
-2.冒險中，冒險節點完成後恢復10%心智
-3.不在冒險時，平時一段時間恢復心智</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理傷害值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,14 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精神傷害值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神傷害的強度值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防禦值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,14 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抗壓值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵抗精神傷害的強度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命中值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,53 +377,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.腳色攻擊後的無法再次攻擊時間，越大代表越久
+    <t>負面狀態的減免時間，100%代表不會受到負面效果影響</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備獲得的狀態效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍、鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打擊武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色升級可以自行選擇要強化的8項主屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技巧(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命打擊：造成200%傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天賦特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生擁有/後天習得的狀態效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專長技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級最高為50級，50級後可以轉生回到1級，但保留天賦特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隊伍中有一個人會當上老大，老大會有領導風格影響戰鬥，且戰鬥時會在上方出現對話框喊話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以學習的主動技能，最多兩項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備武器的武器攻擊，最多可以有兩把武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅持下去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行程表
+腳色面板排版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色血量顯示
+Unity APK肥大原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊類型分為兩種，分別為武器攻擊與技能攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器攻擊(被動)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻擊(主動)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備武器會使用該武器的攻擊，為被動觸發，CD為該武器的CD秒數加上負重影響。兩手可以個裝兩把武器，沒裝備視同空手攻擊。如果拿了一把CD5的刀與一把CD8的斧頭，且腳色總負重為50%，則腳色分別每7.5(5+5*0.5)使用刀攻擊，每12(8+8*0.5)使用斧頭攻擊一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色透過學習得來的主動施放技能，技能CD為該技能CD秒數加上負重影響。與武器攻擊差別在於，CD到要主動點擊施放，且太晚按會降低強度。
+根據施放技能時機，會有3種結果，分別為精準、優秀、普通，精準為的120%(傷害/治癒)加成、優秀為110%(傷害/治癒)加成、普通為100%(傷害/治癒)加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥技能用節奏遊戲的方式施放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始時用對話決定起始腳色屬性天賦特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴避減傷：造成50%傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊後會有4種結果，分別是致命打擊、擊中、迴避減傷、閃避，某些攻擊附帶的效果會要求是否有擊中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閃避：造成0%傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器攻擊與技能攻擊規劃
+被攻擊ICON表現設計
+數字顯示設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊中跳血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要在UnityUI裡顯示粒子特效目前要使用兩個Canvas，可能用一般貼圖動畫代替比較方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊中跳血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色ICON表現_補血
+擊中跳血_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊中跳血_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊中跳血_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊中跳血_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊中跳血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反應(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法傷害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法傷害的強度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵抗魔法傷害的強度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.影響腳色發動技能或使用武器攻擊的CD，負重50%代表本來CD5秒的技能CD便7.5秒
 2.腳色同時行動時，誰先動作
 3.負重不能超過100%，否則不會進行任何動作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>負面狀態的減免時間，100%代表不會受到負面效果影響</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備獲得的狀態效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劍、鞭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器與防具之間有相剋，會影響造成的物理/精神傷害，武器剋防具時傷害增加50%，武器被防具剋時傷害減少50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重甲</t>
+    <t>武器與防具之間有相剋，會影響造成的物理/魔法傷害，武器剋防具時傷害增加50%，武器被防具剋時傷害減少50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,123 +645,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打擊武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破甲武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色升級可以自行選擇要強化的8項主屬性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響物理傷害，1點力量影響3點物理傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響精神傷害，1點智力影響3點精神傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技巧(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵禦(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響物理抵抗，1點抵禦影響3點防禦值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響精神抵抗，1點抗壓影響3點抗壓值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響命中值與少量物理/精神傷害，1點技巧影響1點物理/精神傷害值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響迴避值與少量物理/精神抵抗，1點警戒影響1點防禦/抗壓值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>致命打擊：造成200%傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天賦特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生擁有/後天習得的狀態效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專長技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等級最高為50級，50級後可以轉生回到1級，但保留天賦特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隊伍中有一個人會當上老大，老大會有領導風格影響戰鬥，且戰鬥時會在上方出現對話框喊話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以學習的主動技能，最多兩項</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備武器的武器攻擊，最多可以有兩把武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅持下去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行程表
-腳色面板排版</t>
+    <t>爆發(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響命中值與少量物理/魔法傷害，1點技巧增加1點物理/魔法傷害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響物理傷害，1點力量增加3點物理傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響魔法傷害，1點智力增加3點魔法傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響防禦，1點警戒增加3點防禦值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響致命打擊增加的傷害與迴避減傷減少的傷害，1點爆發增加5點致命打擊時的物理/魔法傷害值，1點爆發增加5點迴避減傷時的防禦與魔抗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法傷害運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備(太複雜不要了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法殺傷力= (腳色魔攻值+裝備魔攻值+效果魔攻值) *(效果魔傷乘值) * (技能魔傷%數)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗力=(腳色魔抗值+裝備魔抗值+效果魔抗加值) *(效果魔抗乘值)*(裝備魔抗強度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正屬性表，把裝備相剋與心智拿掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF0070C0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -651,7 +714,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF0070C0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -662,74 +725,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腳色血量顯示
-Unity APK肥大原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊類型分為兩種，分別為武器攻擊與技能攻擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器攻擊(被動)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能攻擊(主動)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備武器會使用該武器的攻擊，為被動觸發，CD為該武器的CD秒數加上負重影響。兩手可以個裝兩把武器，沒裝備視同空手攻擊。如果拿了一把CD5的刀與一把CD8的斧頭，且腳色總負重為50%，則腳色分別每7.5(5+5*0.5)使用刀攻擊，每12(8+8*0.5)使用斧頭攻擊一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色透過學習得來的主動施放技能，技能CD為該技能CD秒數加上負重影響。與武器攻擊差別在於，CD到要主動點擊施放，且太晚按會降低強度。
-根據施放技能時機，會有3種結果，分別為精準、優秀、普通，精準為的120%(傷害/治癒)加成、優秀為110%(傷害/治癒)加成、普通為100%(傷害/治癒)加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊結果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰鬥完選擇是否繼續前進採用對話腳本的方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰鬥技能用節奏遊戲的方式施放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開始時用對話決定起始腳色屬性天賦特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迴避減傷：造成50%傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊後會有4種結果，分別是致命打擊、擊中、迴避減傷、閃避，某些攻擊附帶的效果會要求是否有擊中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閃避：造成0%傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器攻擊與技能攻擊規劃
-被攻擊ICON表現設計
-數字顯示設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腳色血量顯示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腳色ICON表現_擊中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unity APK肥大原因</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -763,31 +820,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施放技能音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色ICON狀態表現(被攻擊、死亡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF0070C0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>腳色血量顯示</t>
+      <t>腳色ICON表現_死亡</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
-        <family val="2"/>
+        <family val="1"/>
+        <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -802,14 +852,40 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>腳色ICON狀態表現(被攻擊、死亡)</t>
+      <t>腳色ICON表現_補血</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
-        <family val="2"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+施放技能音效</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>施放主動技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -824,8 +900,48 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Unity APK肥大原因</t>
+      <t>修正屬性表，把裝備相剋與心智拿掉</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色ICON狀態表現(被攻擊、死亡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響迴避值與少量物理/魔法抵抗，1點反應增加1點防禦/魔抗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅韌(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響魔法抵抗，1點堅韌增加3點魔抗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理殺傷力= (腳色物攻值+裝備物攻值+效果物攻值+技能物攻值) *(效果物傷乘值) * (技能物傷乘值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法傷害值=(魔法殺傷力*100)/(100+魔抗力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物抗力=(腳色防禦值+裝備防禦值+效果防禦加值) *(效果防禦乘值)*(裝備抵抗乘值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害值=(物理殺傷力*100)/(100+物抗力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總傷害值=(物理傷害值+魔法傷害值)*(裝備傷害乘值)*(效果傷害乘值)+(絕對傷害值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作法術功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +952,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -914,6 +1030,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -965,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -988,6 +1119,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1292,13 +1434,13 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="7" width="22.375" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="21.375" customWidth="1"/>
@@ -1317,10 +1459,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1330,162 +1472,162 @@
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="66">
       <c r="A20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1498,153 +1640,153 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
-      <c r="A28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="57" customHeight="1">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1">
+      <c r="A28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1">
+      <c r="A29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="30" spans="1:7" s="17" customFormat="1">
+      <c r="A30" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="31" spans="1:7" s="17" customFormat="1">
+      <c r="A31" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="17" customFormat="1">
+      <c r="A32" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="17" customFormat="1">
+      <c r="A33" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="17" customFormat="1">
+      <c r="B34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D34" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="35" spans="1:7" s="17" customFormat="1">
+      <c r="A35" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D35" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="17" customFormat="1">
+      <c r="A36" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D36" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="37" spans="1:7" s="17" customFormat="1">
+      <c r="A37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1">
@@ -1660,22 +1802,22 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1686,17 +1828,17 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1722,25 +1864,25 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="148.5">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1764,77 +1906,77 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="132">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1859,97 +2001,97 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="66">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="2" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="2" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="2" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="2" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1970,65 +2112,65 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +2185,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2054,58 +2196,58 @@
   <sheetData>
     <row r="1" spans="1:2" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="82.5">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="12" customFormat="1">
       <c r="A5" s="12" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2133,13 +2275,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33">
@@ -2147,24 +2289,24 @@
         <v>42304</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="77.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="67.5">
       <c r="A3" s="8">
         <v>42305</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="66">
@@ -2172,21 +2314,21 @@
         <v>42306</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5">
       <c r="A5" s="8">
         <v>42307</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>163</v>
+      <c r="B5" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2195,44 +2337,89 @@
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="33">
       <c r="A7" s="9">
         <v>42309</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>42310</v>
       </c>
+      <c r="B8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>42311</v>
       </c>
+      <c r="B9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>42312</v>
       </c>
+      <c r="B10" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>42313</v>
       </c>
+      <c r="B11" s="14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>42314</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8">
+      <c r="B12" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="49.5">
+      <c r="A13" s="9">
         <v>42315</v>
       </c>
+      <c r="B13" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>42316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2241,12 +2428,12 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>42318</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>42319</v>
       </c>
     </row>
@@ -2261,7 +2448,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>42322</v>
       </c>
     </row>
@@ -2271,7 +2458,7 @@
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>42324</v>
       </c>
     </row>
@@ -2291,7 +2478,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>42328</v>
       </c>
     </row>
@@ -2301,7 +2488,7 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>42330</v>
       </c>
     </row>
@@ -2316,12 +2503,12 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>42333</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>42334</v>
       </c>
     </row>
@@ -2331,22 +2518,22 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <v>42336</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>42337</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>42338</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>42339</v>
       </c>
     </row>
@@ -2391,22 +2578,22 @@
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>42348</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>42349</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8">
+      <c r="A48" s="9">
         <v>42350</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>42351</v>
       </c>
     </row>
@@ -2416,12 +2603,12 @@
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>42353</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>42354</v>
       </c>
     </row>
@@ -2436,7 +2623,7 @@
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>42357</v>
       </c>
     </row>
@@ -2446,7 +2633,7 @@
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>42359</v>
       </c>
     </row>
@@ -2466,7 +2653,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>42363</v>
       </c>
     </row>
@@ -2476,7 +2663,7 @@
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <v>42365</v>
       </c>
     </row>
@@ -2491,12 +2678,12 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="9">
+      <c r="A66" s="8">
         <v>42368</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>42369</v>
       </c>
     </row>
@@ -2506,22 +2693,22 @@
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <v>42371</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="8">
+      <c r="A70" s="9">
         <v>42372</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="9">
+      <c r="A71" s="8">
         <v>42373</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="9">
+      <c r="A72" s="8">
         <v>42374</v>
       </c>
     </row>
@@ -2566,22 +2753,22 @@
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="9">
+      <c r="A81" s="8">
         <v>42383</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="9">
+      <c r="A82" s="8">
         <v>42384</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="8">
+      <c r="A83" s="9">
         <v>42385</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="8">
+      <c r="A84" s="9">
         <v>42386</v>
       </c>
     </row>
@@ -2591,12 +2778,12 @@
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="9">
+      <c r="A86" s="8">
         <v>42388</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="9">
+      <c r="A87" s="8">
         <v>42389</v>
       </c>
     </row>
@@ -2611,7 +2798,7 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="8">
+      <c r="A90" s="9">
         <v>42392</v>
       </c>
     </row>
@@ -2621,7 +2808,7 @@
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="9">
+      <c r="A92" s="8">
         <v>42394</v>
       </c>
     </row>
@@ -2641,7 +2828,7 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="9">
+      <c r="A96" s="8">
         <v>42398</v>
       </c>
     </row>
@@ -2651,7 +2838,7 @@
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="8">
+      <c r="A98" s="9">
         <v>42400</v>
       </c>
     </row>
@@ -2666,12 +2853,12 @@
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="9">
+      <c r="A101" s="8">
         <v>42403</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="9">
+      <c r="A102" s="8">
         <v>42404</v>
       </c>
     </row>
@@ -2681,22 +2868,22 @@
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="8">
+      <c r="A104" s="9">
         <v>42406</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="8">
+      <c r="A105" s="9">
         <v>42407</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="9">
+      <c r="A106" s="8">
         <v>42408</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="9">
+      <c r="A107" s="8">
         <v>42409</v>
       </c>
     </row>
@@ -2741,22 +2928,22 @@
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="9">
+      <c r="A116" s="8">
         <v>42418</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="9">
+      <c r="A117" s="8">
         <v>42419</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="8">
+      <c r="A118" s="9">
         <v>42420</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="8">
+      <c r="A119" s="9">
         <v>42421</v>
       </c>
     </row>
@@ -2779,37 +2966,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="14805" windowHeight="7875" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="14805" windowHeight="7740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="腳色與裝備" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="195">
   <si>
     <t>皮甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,18 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冒險開始時，場景會往前冒險並標示出距離終點的進度，進度條上會有一些節點代表著事件，事件由遇敵、機會與命運組成。完成冒險會獲得額外的寶藏與報酬。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遭遇事件：事件有遇敵、機會、命運三種
-1.遇敵：遭遇敵人進行戰鬥或逃跑，逃跑則結束冒險並失去之前獲得的戰利品，而選擇戰鬥會依照負重高低來決定攻擊順序，負重越輕越先進行一次武器攻擊(如果是雙武器，會以較輕的那把武器進行攻擊，如果重量一樣則隨機)，殺死怪物會得到寶物，若是被怪物滅團會喪失戰利品且隨機丟失腳色身上一件裝備或丟失金錢並結束冒險。
-2.機會：遇到一個封印，可以選擇打不打開，打開有機會觸發好的Buffer或取得寶箱、也可能觸發壞的Buffer或遭遇怪物
-3.命運：有被怪物伏擊、撿到寶箱、取得Buffer
-結束事件：結束事件可選擇是否繼續冒險，是的話繼續，否的話結算戰利品並結束冒險</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幹活了!小子們：老大發動技能時，全體精神恢復5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,18 +291,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>體力為0時，腳色陣亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影響體力與體力恢復</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>體質(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力量(主要屬性)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,15 +303,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>體力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迴避值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回復力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -519,19 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能攻擊(主動)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備武器會使用該武器的攻擊，為被動觸發，CD為該武器的CD秒數加上負重影響。兩手可以個裝兩把武器，沒裝備視同空手攻擊。如果拿了一把CD5的刀與一把CD8的斧頭，且腳色總負重為50%，則腳色分別每7.5(5+5*0.5)使用刀攻擊，每12(8+8*0.5)使用斧頭攻擊一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色透過學習得來的主動施放技能，技能CD為該技能CD秒數加上負重影響。與武器攻擊差別在於，CD到要主動點擊施放，且太晚按會降低強度。
-根據施放技能時機，會有3種結果，分別為精準、優秀、普通，精準為的120%(傷害/治癒)加成、優秀為110%(傷害/治癒)加成、普通為100%(傷害/治癒)加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻擊結果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施放主動技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反應(主要屬性)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,10 +637,6 @@
   </si>
   <si>
     <t>魔抗力=(腳色魔抗值+裝備魔抗值+效果魔抗加值) *(效果魔抗乘值)*(裝備魔抗強度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修正屬性表，把裝備相剋與心智拿掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,6 +734,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>腳色ICON狀態表現(被攻擊、死亡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響迴避值與少量物理/魔法抵抗，1點反應增加1點防禦/魔抗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理殺傷力= (腳色物攻值+裝備物攻值+效果物攻值+技能物攻值) *(效果物傷乘值) * (技能物傷乘值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法傷害值=(魔法殺傷力*100)/(100+魔抗力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物抗力=(腳色防禦值+裝備防禦值+效果防禦加值) *(效果防禦乘值)*(裝備抵抗乘值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害值=(物理殺傷力*100)/(100+物抗力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總傷害值=(物理傷害值+魔法傷害值)*(裝備傷害乘值)*(效果傷害乘值)+(絕對傷害值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作法術功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險開始時，場景會往前冒險並標示出距離終點的進度，進度條上會有一些節點代表著事件，事件由遇敵、機會與命運組成。完成冒險會獲得額外的寶藏與報酬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色透過學習得來的主動施放技能，技能CD為該技能CD秒數加上負重影響。與武器攻擊差別在於，要主動點擊施放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻擊(主動)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備武器會使用該武器的攻擊，為被動觸發，CD為該武器的CD秒數加上負重影響。兩手可以個裝兩把武器，沒裝備視同空手攻擊。如果拿了一把CD5的刀與一把CD8的斧頭，且腳色總負重為50%，則腳色分別每7.5(5+5*0.5)使用刀攻擊，每12(8+8*0.5)使用斧頭攻擊一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正屬性表，把裝備相剋與心智拿掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遭遇事件：事件有遇敵、機會、命運三種
+1.遇敵：遭遇敵人進行戰鬥或逃跑，逃跑則結束冒險並失去之前獲得的戰利品，而選擇戰鬥會依照負重高低來決定攻擊順序，負重越輕越先進行一次武器攻擊(如果是雙武器，會以較輕的那把武器進行攻擊，如果重量一樣則隨機)，殺死怪物會得到寶物，若是被怪物滅團會喪失戰利品且隨機丟失腳色身上一件裝備或丟失金錢並結束冒險。
+2.機會：遇到一個封印，可以選擇打不打開，打開有機會觸發好的Buffer或取得寶箱、也可能觸發壞的Buffer或遭遇怪物
+3.命運：有被怪物伏擊、撿到寶箱、取得Buffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>結束事件：結束事件可選擇是否繼續冒險
+1.繼續：保留現有狀態(血量、主動技能CD)繼續冒險
+2.不繼續：結算戰利品並結束冒險</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需解決戰鬥太亂的問題
+1.誰打誰分不清楚
+2.跳血太亂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.誰打誰分不清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫影格都改24格
+顯示FPS
+腳色同時施法時輪流播放動作可以解決誰打誰分不清楚的問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色同時施法時輪流播放動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">解決戰鬥太亂的問題
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.誰打誰分不清楚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.跳血太亂</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作法術功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色施法位置與縮放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲核心：風險、變化、競爭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暈眩與定身等緩速效果造成迴避下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致殘會造成命中下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要開遊戲學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體力為0時，腳色陣亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主動施法
+主動施法UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主動施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -808,14 +950,43 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>施放主動技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">施放主動技能
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修正屬性表，把裝備相剋與心智拿掉</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,79 +1040,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>施放主動技能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>修正屬性表，把裝備相剋與心智拿掉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色ICON狀態表現(被攻擊、死亡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響迴避值與少量物理/魔法抵抗，1點反應增加1點防禦/魔抗值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅韌(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響魔法抵抗，1點堅韌增加3點魔抗值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理殺傷力= (腳色物攻值+裝備物攻值+效果物攻值+技能物攻值) *(效果物傷乘值) * (技能物傷乘值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法傷害值=(魔法殺傷力*100)/(100+魔抗力)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物抗力=(腳色防禦值+裝備防禦值+效果防禦加值) *(效果防禦乘值)*(裝備抵抗乘值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理傷害值=(物理殺傷力*100)/(100+物抗力)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總傷害值=(物理傷害值+魔法傷害值)*(裝備傷害乘值)*(效果傷害乘值)+(絕對傷害值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實作法術功能</t>
+    <t>意志(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響魔法抵抗，1點意志增加3點魔抗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韌性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體質(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心智(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響精神與精神回復</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決刷很爛的關卡用計能補血的問題
+解決方法：增加精神屬性，施法會消耗精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加精神屬性
+增加非戰鬥中施法屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法限制(精神、CD、非戰鬥中)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +1085,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1045,8 +1178,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,6 +1252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1096,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1130,6 +1305,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1431,10 +1616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1459,10 +1645,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1472,373 +1658,381 @@
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
-        <v>72</v>
+      <c r="A12" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66">
       <c r="A21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
-      <c r="A26" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1">
-      <c r="A27" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1">
+      <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="17" customFormat="1">
-      <c r="A28" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="B28" s="17" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1">
       <c r="A29" s="17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1">
       <c r="A30" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1">
       <c r="A31" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1">
       <c r="A32" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1">
       <c r="A33" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="17" customFormat="1">
-      <c r="B34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="A34" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="17" customFormat="1">
+      <c r="B35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="17" customFormat="1">
-      <c r="A35" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="17" customFormat="1">
       <c r="A36" s="17" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="17" customFormat="1">
       <c r="A37" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="17" t="s">
+    </row>
+    <row r="38" spans="1:7" s="17" customFormat="1">
+      <c r="A38" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:7" s="2" customFormat="1">
+      <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1">
-      <c r="A40" s="3" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1">
+      <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="2" customFormat="1">
-      <c r="A44" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>171</v>
-      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1">
+      <c r="A45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +2044,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1869,7 +2064,7 @@
     </row>
     <row r="2" spans="1:2" ht="33">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1">
@@ -1877,26 +2072,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="148.5">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
+    <row r="4" spans="1:2" ht="181.5">
+      <c r="A4" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1">
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1906,7 +2106,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="132">
@@ -1916,67 +2116,67 @@
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1988,6 +2188,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表4"/>
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2051,7 +2252,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="2" customFormat="1">
@@ -2102,6 +2303,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2182,10 +2384,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2196,58 +2399,58 @@
   <sheetData>
     <row r="1" spans="1:2" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="82.5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="99">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="12" customFormat="1">
       <c r="A5" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2259,29 +2462,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7"/>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33">
@@ -2289,10 +2493,10 @@
         <v>42304</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="67.5">
@@ -2300,24 +2504,24 @@
         <v>42305</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="66">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="49.5">
       <c r="A4" s="8">
         <v>42306</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5">
@@ -2325,10 +2529,10 @@
         <v>42307</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2342,13 +2546,13 @@
         <v>42309</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2356,10 +2560,10 @@
         <v>42310</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2367,10 +2571,10 @@
         <v>42311</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2378,26 +2582,26 @@
         <v>42312</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>42313</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>139</v>
+      <c r="B11" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>42314</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>139</v>
+      <c r="B12" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="49.5">
@@ -2405,109 +2609,158 @@
         <v>42315</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="49.5">
       <c r="A14" s="9">
         <v>42316</v>
       </c>
-      <c r="B14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="82.5">
       <c r="A15" s="8">
         <v>42317</v>
       </c>
+      <c r="B15" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
         <v>42318</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="8">
         <v>42319</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="33">
       <c r="A18" s="8">
         <v>42320</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="8">
         <v>42321</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="66">
       <c r="A20" s="9">
         <v>42322</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" ht="33">
       <c r="A21" s="9">
         <v>42323</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="8">
         <v>42324</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="8">
         <v>42325</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="8">
         <v>42326</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" s="8">
         <v>42327</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" s="8">
         <v>42328</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" s="9">
         <v>42329</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" s="9">
         <v>42330</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" s="8">
         <v>42331</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" s="8">
         <v>42332</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="8">
         <v>42333</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" s="8">
         <v>42334</v>
       </c>
@@ -2956,47 +3209,68 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>42</v>
+    <row r="1" spans="1:1" s="22" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/AVentureCapital.xlsx
+++ b/Designer/AVentureCapital.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="510" windowWidth="14805" windowHeight="7605" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="960" windowWidth="14805" windowHeight="7155" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="腳色" sheetId="1" r:id="rId1"/>
+    <sheet name="腳色資訊" sheetId="1" r:id="rId1"/>
     <sheet name="武器" sheetId="10" r:id="rId2"/>
     <sheet name="主防具" sheetId="11" r:id="rId3"/>
     <sheet name="副防具" sheetId="12" r:id="rId4"/>
@@ -18,13 +18,16 @@
     <sheet name="攻擊" sheetId="7" r:id="rId9"/>
     <sheet name="行程表" sheetId="8" r:id="rId10"/>
     <sheet name="想法" sheetId="5" r:id="rId11"/>
+    <sheet name="回饋意見" sheetId="13" r:id="rId12"/>
+    <sheet name="資源" sheetId="14" r:id="rId13"/>
+    <sheet name="公式" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="384">
   <si>
     <t>皮甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,63 +65,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冒險旅店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腳色復活、腳色祝福、腳色補血</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旅店有公佈欄，會顯示排行榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器職人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可購買/販賣武器與裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任務會館</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可接取與回報任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可接取頭目懸賞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>營火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出發冒險</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可加持(強化基礎數值)與附魔(附加額外效果)裝備與武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訓練所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>進入訓練所等同於掛機練等，但訓練中的腳色不會回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在旅店租防，提升腳色回血速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在旅店招募隊友，新隊友會取代舊隊友，但繼承等級、武器、裝備)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,12 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可在旅店消耗金錢打聽情報，情報內容就像教學例如：
-JOJO冒險野豬：據說長捲角的怪物戰鬥後都會偷走你財富
-草鞋魯夫：冒險中會遭遇的事件分成3種，遇敵：遭遇敵人、機會：可選擇是否觸發的內容、命運：強制觸發的內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幹活了!小子們：老大發動技能時，全體精神恢復5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果開始遇敵時，負重影響攻擊順序為P2-&gt;P1-&gt;E1-&gt;E2-&gt;P3-&gt;E3，那麼P2先攻擊，再來是P1(約1個時間單位後)，以此類推，全部攻擊完後才開始算CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>禿鷹：傾向攻擊血量最低的敵人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腳色屬性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迴避值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命中值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影響命中的機率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,18 +255,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>負重百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>負面狀態的減免時間，100%代表不會受到負面效果影響</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裝備效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,27 +319,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天賦特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生擁有/後天習得的狀態效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專長技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等級最高為50級，50級後可以轉生回到1級，但保留天賦特徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>隊伍中有一個人會當上老大，老大會有領導風格影響戰鬥，且戰鬥時會在上方出現對話框喊話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以學習的主動技能，最多兩項</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信仰(主要屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法傷害的強度值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,10 +443,6 @@
   </si>
   <si>
     <t>武器與防具之間有相剋，會影響造成的物理/魔法傷害，武器剋防具時傷害增加50%，武器被防具剋時傷害減少50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆發(主要屬性)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -597,22 +494,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理傷害值=(物理殺傷力*100)/(100+物抗力)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總傷害值=(物理傷害值+魔法傷害值)*(裝備傷害乘值)*(效果傷害乘值)+(絕對傷害值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>實作法術功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冒險開始時，場景會往前冒險並標示出距離終點的進度，進度條上會有一些節點代表著事件，事件由遇敵、機會與命運組成。完成冒險會獲得額外的寶藏與報酬。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腳色透過學習得來的主動施放技能，技能CD為該技能CD秒數加上負重影響。與武器攻擊差別在於，要主動點擊施放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,47 +507,6 @@
   </si>
   <si>
     <t>修正屬性表，把裝備相剋與心智拿掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>遭遇事件：事件有遇敵、機會、命運三種
-1.遇敵：遭遇敵人進行戰鬥或逃跑，逃跑則結束冒險並失去之前獲得的戰利品，而選擇戰鬥會依照負重高低來決定攻擊順序，負重越輕越先進行一次武器攻擊(如果是雙武器，會以較輕的那把武器進行攻擊，如果重量一樣則隨機)，殺死怪物會得到寶物，若是被怪物滅團會喪失戰利品且隨機丟失腳色身上一件裝備或丟失金錢並結束冒險。
-2.機會：遇到一個封印，可以選擇打不打開，打開有機會觸發好的Buffer或取得寶箱、也可能觸發壞的Buffer或遭遇怪物
-3.命運：有被怪物伏擊、撿到寶箱、取得Buffer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>結束事件：結束事件可選擇是否繼續冒險
-1.繼續：保留現有狀態(血量、主動技能CD)繼續冒險
-2.不繼續：結算戰利品並結束冒險</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -676,42 +520,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>動畫影格都改24格
-顯示FPS
-腳色同時施法時輪流播放動作可以解決誰打誰分不清楚的問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腳色同時施法時輪流播放動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">解決戰鬥太亂的問題
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.誰打誰分不清楚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.跳血太亂</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -875,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>韌性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>體質(主要屬性)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,10 +709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要有不操控遊玩的方式，不然不能增加收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>儀式刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,18 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影響命中值與少量物理/魔法攻擊，1點技巧增加1點物理/魔法攻擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響迴避值與少量物理/魔法防禦，1點反應增加1點防禦/魔法防禦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響致命打擊增加的傷害與迴避減傷減少的傷害，1點爆發增加5點致命打擊時的物理/魔法攻擊，1點爆發增加5點迴避減傷時的物理/魔法防禦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理攻擊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,10 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>無盡儀式刀：190%物傷+80%魔傷+10物攻+10魔攻，命中恢復精神10點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+3鍊甲：120%物抗+80%魔抗+10物防+10魔防，命中恢復精神10點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1244,18 +1029,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+無盡鍊甲：190%物抗+80%魔抗+10物防+10魔防，命中恢復精神10點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附魔會得到額外的效果，防具等級如果是5，就從等級5的效果隨機抽一種效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>強化會額外增加武器的基本數值，強化增加的數值為武器等級*倍率，如果是單手武器為武器等級*1，雙手武器為武器等級*4，強化的屬性種類會數值隨機分配在兩種主屬性中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果儀式刀的武器等級為4，強化數值如果是單手武器為4*1，雙手武器為4*4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1277,66 +1054,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+3物防+8魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+1戰妝面具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副防具分為魔抗副防具與物抗副防具，魔抗副防具加持時增加魔抗，物抗副防具加持時增加物抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戰妝面具(魔抗防具)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+5%魔抗+3物防+8魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本屬性是副防具的基本數值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戰妝面具的基本數值為：90%物抗+50%魔抗+10物防+10魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰妝面具：+3物防+8魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1戰妝面具：+5%魔抗+3物防+8魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+2戰妝面具：+10%魔抗+3物防+8魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+3戰妝面具：+15%魔抗+3物防+8魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50%成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加持會增加基本數值中的物抗或魔抗(取決於是物抗防具還是魔抗防具)，加持一階增加5%，加持成功率都為50%且最高只有+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無盡戰妝面具：+20%魔抗+3物防+8魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲核心：風險、變化、競爭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>風險：冒險過程的風險、衝裝風險</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1353,14 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>體力恢復</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>體力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精神值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,27 +1090,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施法要消耗精神值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不在冒險時，平時一段時間恢復體力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響體力與體力恢復，1點體質增加10點體力與1點體力恢復</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影響精神與精神回復，1點心智增加10點精神與1點精神恢復</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>110%物傷+70%魔傷+10物攻+10魔攻，命中恢復精神10點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副防具部位分為：頭盔、手套、鞋、項鍊、戒指、耳環</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1471,11 +1176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>實作武器
-實作腳色穿武器_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法術結構修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1574,16 +1274,758 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>實作腳色穿武器_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實作腳色穿武器_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實作腳色穿護甲
+    <t>實作武器
+實作腳色穿武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作腳色穿武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">實作武器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>實作腳色穿武器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作腳色穿護甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作腳色穿防具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作腳色穿防具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>實作腳色穿護甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 實作腳色穿防具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">解決戰鬥太亂的問題
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.誰打誰分不清楚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.跳血太亂</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫影格都改24格
+顯示FPS
+腳色同時施法時輪流播放動作可以解決誰打誰分不清楚的問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險開始時，場景會往前冒險並標示出距離終點的進度，進度條上會有一些節點代表著事件，事件由遇敵、調查、意外、野營組成。完成冒險會獲得額外的寶藏與報酬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險進程UI設計</t>
+  </si>
+  <si>
+    <t>冒險進程UI設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可忘記：克蘇魯、半寫實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險進程UI設計
+風格要改寫實一點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消滅敵人下一場冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有不操控遊玩的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀錄冒險進度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險進度實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險事件規劃
+怪物表規劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險事件表規劃
+怪物表規劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險事件讀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冒險事件讀表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怪物讀表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險事件讀表
+怪物讀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險事件實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看克蘇魯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調查事件實作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調查事件實作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.不在冒險時，平時一段時間恢復精神
+2.野營時恢復的精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外事件實作
+調查事件實作3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外事件實作
+調查事件實作3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紮營事件實作
+怪物事件實作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落表讀表
+物品編號規則</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害值=(物理殺傷力*100)/(100+物抗力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總傷害值=(物理傷害值+魔法傷害值)*(裝備傷害乘值)*(效果傷害乘值)+(絕對傷害值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲核心：風險、變化、競爭、進隱藏事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物事件實作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怪物事件實作2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>掉落表讀表
+物品編號規則</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">怪物事件實作2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敵方腳色只有第一支會攻擊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出怪事件有問題
+調查事件沒按權重出事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵方腳色只有第一支會攻擊
+出怪事件有問題
+調查事件沒按權重出事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職業對應每日任務，完成任務就薪水且可以升職</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化會額外增加武器的基本數值，強化增加的數值為武器等級*倍率，如果是單手武器為武器等級*1，雙手武器為武器等級*4，強化的屬性種類會數值隨機分配在兩種主屬性中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3強化儀式刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔需要有道具「魔神器」，附魔後的武器會帶有額外效果，攻擊型魔神器只能給攻擊型武器附魔，防禦型魔神器只能給防禦型武器附魔，通用型魔神器可以給攻擊型也可以給防禦型使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死靈之書(攻擊型)：使用武器時附帶10%機率使目標崩潰，持續3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃之印(防禦型)：使用武器時對目標恢復精神(信仰加成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊波恩之書(通用型)：使用武器時自身物理/魔法防禦提升50%，持續2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌無盡儀式刀：190%物傷+80%魔傷+10物攻+10魔攻，命中恢復精神10點，10%機率使目標崩潰，持續3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃衣之王無盡儀式刀：190%物傷+80%魔傷+10物攻+10魔攻，命中恢復精神10點，目標恢復精神(信仰加成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊波恩無盡儀式刀：190%物傷+80%魔傷+10物攻+10魔攻，命中恢復精神10點，自身物理/魔法防禦提升50%，持續2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主場景規劃
+武器附魔規劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神歸0時崩潰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險旅店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在旅店消耗金錢打聽情報，情報內容就像教學例如：
+JOJO冒險野豬：據說只要一直冒險就有很低的機率觸發一連串隱藏的劇情關卡
+草鞋魯夫：冒險中的里程碑事件有遇敵：遭遇敵人、調查：可選擇是否觸發的事件、突發事件：強制觸發的事件、野營：休息並決定是否繼續冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職人會館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉職</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取頭目懸賞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取與回報任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加持(強化基礎數值)與附魔(附加額外效果)裝備與武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募隊友，新隊友會取代舊隊友，武器跟裝備會留下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房，提升腳色回血速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公佈欄，會顯示排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>達成職業每日要求工作取得報酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生職</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出發冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職能訓練所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買/販賣武器與裝備與道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付錢進入訓練所等同於掛機練等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附魔規劃
+主場景規劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險進度實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4個月只做這樣進度太慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韋哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:20 WEGO 應該說戰鬥的時候</t>
+  </si>
+  <si>
+    <t>20:19 WEGO ㄟ 我玩了感覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:19 WEGO 我想要全自動耶xd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠古印記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般花費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級花費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線索可以解鎖關卡或啟動關卡隱藏事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主場景元件Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主場景元件Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主場景跟戰鬥場景切換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇事件：事件有遇敵、調查、意外、野營四種
+1.遇敵：遭遇敵人進行戰鬥或逃跑
+逃跑：結束冒險並失去之前獲得的戰利品
+戰鬥：殺死怪物會得到戰利品，若是被怪物滅團會喪失戰利品且隨機丟失腳色身上一件裝備或丟失金錢並結束冒險。
+2.調查：遇到一個封印，可以選擇是否解開 
+打開：有機會觸發好的結果，也可能是壞的結果 
+不打開：繼續冒險
+3.意外：強制觸發一個好的結果或壞的結果
+4.野營：野營可選擇是否返回城鎮
+返回：結束冒險，並取得所有目前獲得的戰利品
+野營：移除所有腳色狀態並恢復部分體力與精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響體力與體力恢復，1點體質增加10點體力與1點體力恢復</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.不在冒險時，平時一段時間恢復體力
+2.野營時恢復的體力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法要消耗精神值，精神值為0時會崩潰，崩潰後會不受控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副防具分為魔抗副防具與物抗副防具，魔抗副防具加持時增加魔抗，物抗副防具加持時增加物抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰妝面具的基本數值為：+10物防+10魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10物防+10魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10物防+12魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰妝面具：+10物防+10魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1戰妝面具：+3物防+12魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2戰妝面具：+3物防+14魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3戰妝面具：+3物防+16魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加持會增加基本數值中的物抗或魔抗(取決於是物抗防具還是魔抗防具)，加持一階增加2，加持成功率都為50%且最高只有+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60%成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+4戰妝面具：+3物防+18魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5戰妝面具：+3物防+20魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+6戰妝面具：+3物防+22魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+7戰妝面具：+3物防+24魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10鍊甲：190%物抗+80%魔抗+10物防+10魔防，命中恢復精神10點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8戰妝面具：+3物防+26魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10儀式刀：190%物傷+80%魔傷+10物攻+10魔攻，命中恢復精神10點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰(主要屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專長技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色UI規劃1
+腳色UI實作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色UI規劃1
+腳色UI實作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色UI規劃2
+腳色UI實作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體力恢復</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負重百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韌性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以學習的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副防具部位分為：頭盔、手套、鞋、飾品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色UI規劃2
+腳色UI實作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天賦技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生擁有的主動技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響致命打擊增加的傷害與迴避減傷減少的傷害，1點爆發增加5點致命打擊時的物理/魔法攻擊，1點爆發增加5點迴避減傷時的物理/魔法防禦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發(主要屬性)(不使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級最高為50級，每級可點1點屬性，每10級可多點1點屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響命中值與少量物理/魔法攻擊，1點技巧增加3點命中與1點物理/魔法攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響迴避值與少量物理/魔法防禦，1點反應增加3點迴避與1點防禦/魔法防禦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增MainAttribute表
+新增Role表
+新增String_Attribute表
+移除爆發力(Power)屬性
+MainChara類別實作I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增Level表
+新增Talent表
+MainChara類別實作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增Sprite表
+MainChara類別實作3
+SummaryUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增Level表
+新增Talent表
+MainChara類別實作2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1697,14 +2139,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -1734,6 +2168,15 @@
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1796,7 +2239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1830,19 +2273,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1854,6 +2297,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2156,10 +2604,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2184,10 +2632,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2197,286 +2645,234 @@
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>289</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>157</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>283</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" t="s">
-        <v>287</v>
+      <c r="A14" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33">
       <c r="A16" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>366</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33">
       <c r="A18" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>231</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="66">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="66">
+      <c r="A25" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1">
-      <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1">
-      <c r="A35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>220</v>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2491,8 +2887,8 @@
   <sheetPr codeName="工作表7"/>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2505,13 +2901,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33">
@@ -2519,10 +2915,10 @@
         <v>42304</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="67.5">
@@ -2530,13 +2926,13 @@
         <v>42305</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.5">
@@ -2544,10 +2940,10 @@
         <v>42306</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5">
@@ -2555,10 +2951,10 @@
         <v>42307</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2572,13 +2968,13 @@
         <v>42309</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2586,10 +2982,10 @@
         <v>42310</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2597,10 +2993,10 @@
         <v>42311</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2608,10 +3004,10 @@
         <v>42312</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2619,7 +3015,7 @@
         <v>42313</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2627,7 +3023,7 @@
         <v>42314</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33">
@@ -2635,10 +3031,10 @@
         <v>42315</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="49.5">
@@ -2646,13 +3042,13 @@
         <v>42316</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="66">
@@ -2660,10 +3056,10 @@
         <v>42317</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2672,10 +3068,10 @@
         <v>42318</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2684,10 +3080,10 @@
         <v>42319</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33">
@@ -2695,10 +3091,10 @@
         <v>42320</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2706,10 +3102,10 @@
         <v>42321</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="33">
@@ -2717,7 +3113,7 @@
         <v>42322</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -2727,7 +3123,7 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2735,10 +3131,10 @@
         <v>42324</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2746,10 +3142,10 @@
         <v>42325</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="33">
@@ -2757,10 +3153,10 @@
         <v>42326</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="82.5">
@@ -2768,10 +3164,10 @@
         <v>42327</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="66">
@@ -2779,10 +3175,10 @@
         <v>42328</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33">
@@ -2790,10 +3186,10 @@
         <v>42329</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2806,10 +3202,10 @@
         <v>42331</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2817,261 +3213,422 @@
         <v>42332</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="33">
       <c r="A31" s="8">
         <v>42333</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>302</v>
+      <c r="B31" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8">
         <v>42334</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="8">
         <v>42335</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" s="9">
         <v>42336</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" ht="33">
       <c r="A35" s="9">
         <v>42337</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="8">
         <v>42338</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="8">
         <v>42339</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="8">
         <v>42340</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" s="8">
         <v>42341</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="8">
         <v>42342</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" s="9">
         <v>42343</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3" ht="33">
       <c r="A42" s="9">
         <v>42344</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="33">
       <c r="A43" s="8">
         <v>42345</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="33">
       <c r="A44" s="8">
         <v>42346</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="8">
         <v>42347</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="8">
         <v>42348</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="8">
         <v>42349</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" s="9">
         <v>42350</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:5">
       <c r="A49" s="9">
         <v>42351</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:5">
       <c r="A50" s="8">
         <v>42352</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:5">
       <c r="A51" s="8">
         <v>42353</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="8">
         <v>42354</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="33">
       <c r="A53" s="8">
         <v>42355</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="8">
         <v>42356</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:5">
       <c r="A55" s="9">
         <v>42357</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:5" ht="33">
       <c r="A56" s="9">
         <v>42358</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="49.5">
       <c r="A57" s="8">
         <v>42359</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="33">
       <c r="A58" s="8">
         <v>42360</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="49.5">
       <c r="A59" s="8">
         <v>42361</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="38.25">
       <c r="A60" s="8">
         <v>42362</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="8">
         <v>42363</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="9">
         <v>42364</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="33">
       <c r="A63" s="9">
         <v>42365</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="33">
       <c r="A64" s="8">
         <v>42366</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="33">
       <c r="A65" s="8">
         <v>42367</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="33">
       <c r="A66" s="8">
         <v>42368</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="8">
         <v>42369</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="8">
         <v>42370</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3">
       <c r="A69" s="9">
         <v>42371</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3">
       <c r="A70" s="9">
         <v>42372</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3" ht="82.5">
       <c r="A71" s="8">
         <v>42373</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="49.5">
       <c r="A72" s="8">
         <v>42374</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="49.5">
       <c r="A73" s="8">
         <v>42375</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="8">
         <v>42376</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:3">
       <c r="A75" s="8">
         <v>42377</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="9">
+    <row r="76" spans="1:3">
+      <c r="A76" s="8">
         <v>42378</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="9">
+    <row r="77" spans="1:3">
+      <c r="A77" s="8">
         <v>42379</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:3">
       <c r="A78" s="8">
         <v>42380</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3">
       <c r="A79" s="8">
         <v>42381</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:3">
       <c r="A80" s="8">
         <v>42382</v>
       </c>
@@ -3087,12 +3644,12 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="9">
+      <c r="A83" s="8">
         <v>42385</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="9">
+      <c r="A84" s="8">
         <v>42386</v>
       </c>
     </row>
@@ -3122,12 +3679,12 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="9">
+      <c r="A90" s="8">
         <v>42392</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="9">
+      <c r="A91" s="8">
         <v>42393</v>
       </c>
     </row>
@@ -3157,12 +3714,12 @@
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="9">
+      <c r="A97" s="8">
         <v>42399</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="9">
+      <c r="A98" s="8">
         <v>42400</v>
       </c>
     </row>
@@ -3192,12 +3749,12 @@
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="9">
+      <c r="A104" s="8">
         <v>42406</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="9">
+      <c r="A105" s="8">
         <v>42407</v>
       </c>
     </row>
@@ -3227,12 +3784,12 @@
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="9">
+      <c r="A111" s="8">
         <v>42413</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="9">
+      <c r="A112" s="8">
         <v>42414</v>
       </c>
     </row>
@@ -3262,12 +3819,12 @@
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="9">
+      <c r="A118" s="8">
         <v>42420</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="9">
+      <c r="A119" s="8">
         <v>42421</v>
       </c>
     </row>
@@ -3281,85 +3838,107 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1" s="22" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="22" customFormat="1">
+      <c r="A2" s="22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>42</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>108</v>
+      <c r="A11" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3369,12 +3948,175 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表12"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表13"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表14"/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <sheetPr codeName="工作表9"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3384,7 +4126,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3395,12 +4137,12 @@
     </row>
     <row r="2" spans="1:7" s="25" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="25" customFormat="1">
       <c r="A3" s="29" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1">
@@ -3408,22 +4150,22 @@
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1">
       <c r="A5" s="25" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1">
       <c r="A6" s="29" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1">
       <c r="A7" s="25" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1">
       <c r="A8" s="29" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1">
@@ -3431,17 +4173,17 @@
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1">
       <c r="A10" s="25" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1">
       <c r="A12" s="27" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1"/>
@@ -3450,191 +4192,203 @@
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1">
       <c r="A15" s="25" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1">
       <c r="A16" s="29" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="25" customFormat="1">
       <c r="A17" s="27" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="25" customFormat="1">
       <c r="A18" s="28"/>
     </row>
-    <row r="19" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
-      <c r="A24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+    <row r="19" spans="1:8" s="25" customFormat="1">
+      <c r="A19" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="25" customFormat="1">
+      <c r="A20" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="25" customFormat="1">
+      <c r="A21" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="29" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1"/>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>184</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
+      <c r="A28" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1"/>
     <row r="30" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="25" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="25" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="29" customFormat="1"/>
-    <row r="39" spans="1:8" s="2" customFormat="1">
-      <c r="A39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" s="29" customFormat="1">
-      <c r="A40" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="29" customFormat="1">
-      <c r="A41" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="25" customFormat="1">
-      <c r="A42" s="27" t="s">
-        <v>238</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="29" customFormat="1"/>
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:8" s="29" customFormat="1">
-      <c r="A43" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="29" customFormat="1"/>
-    <row r="45" spans="1:8" s="29" customFormat="1"/>
-    <row r="46" spans="1:8" s="29" customFormat="1"/>
+      <c r="A43" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="29" customFormat="1">
+      <c r="A44" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="25" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="29" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="47" spans="1:8" s="2" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3643,104 +4397,150 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:8" s="17" customFormat="1" ht="57" customHeight="1">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:8" s="29" customFormat="1">
+      <c r="A48" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="29" customFormat="1">
+      <c r="A49" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="29" customFormat="1">
+      <c r="B50" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="29" customFormat="1">
+      <c r="A51" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="29" customFormat="1">
+      <c r="B52" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="29" customFormat="1">
+      <c r="A53" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="29" customFormat="1">
+      <c r="B54" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1">
+      <c r="A55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1">
+      <c r="A56" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="17" customFormat="1">
-      <c r="A49" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="17" customFormat="1">
-      <c r="A50" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="B56" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="17" customFormat="1">
+      <c r="A57" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="17" customFormat="1">
+      <c r="A58" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="17" customFormat="1">
-      <c r="A51" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="17" t="s">
+    <row r="59" spans="1:7" s="17" customFormat="1">
+      <c r="A59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="17" customFormat="1">
-      <c r="A52" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="17" customFormat="1">
-      <c r="A53" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="17" customFormat="1">
-      <c r="A54" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="17" customFormat="1">
-      <c r="B55" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="17" t="s">
+    <row r="60" spans="1:7" s="17" customFormat="1">
+      <c r="A60" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="17" customFormat="1">
+      <c r="A61" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="17" customFormat="1">
+      <c r="A62" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="17" customFormat="1">
+      <c r="B63" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D63" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="17" customFormat="1">
-      <c r="A56" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="17" t="s">
+    <row r="64" spans="1:7" s="17" customFormat="1">
+      <c r="A64" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="17" customFormat="1">
-      <c r="A57" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="17" t="s">
+      <c r="D64" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="17" customFormat="1">
+      <c r="A65" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D65" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="17" customFormat="1">
-      <c r="A58" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="17" t="s">
+    <row r="66" spans="1:4" s="17" customFormat="1">
+      <c r="A66" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>41</v>
+      <c r="C66" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3752,10 +4552,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表10"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3765,7 +4566,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3776,12 +4577,12 @@
     </row>
     <row r="2" spans="1:7" s="25" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="25" customFormat="1">
       <c r="A3" s="29" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1">
@@ -3789,22 +4590,22 @@
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1">
       <c r="A5" s="25" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1">
       <c r="A6" s="29" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1">
       <c r="A7" s="25" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1">
       <c r="A8" s="29" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1">
@@ -3812,54 +4613,54 @@
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1">
       <c r="A10" s="25" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1">
       <c r="A12" s="27" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1"/>
     <row r="14" spans="1:7" s="25" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1">
       <c r="A15" s="29" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1">
       <c r="A16" s="28" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1"/>
     <row r="18" spans="1:7" s="25" customFormat="1">
       <c r="A18" s="25" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1">
       <c r="A19" s="29" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1">
       <c r="A20" s="27" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1">
       <c r="A21" s="28" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1">
@@ -3867,22 +4668,22 @@
     </row>
     <row r="23" spans="1:7" s="25" customFormat="1">
       <c r="A23" s="25" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="25" customFormat="1">
       <c r="A24" s="29" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="25" customFormat="1">
       <c r="A25" s="27" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="25" customFormat="1">
       <c r="A26" s="28" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
@@ -3890,7 +4691,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3901,22 +4702,22 @@
     </row>
     <row r="29" spans="1:7" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3927,99 +4728,99 @@
     </row>
     <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1"/>
     <row r="35" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="25" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="25" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>254</v>
+        <v>357</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="29" customFormat="1"/>
     <row r="47" spans="1:8" s="2" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4030,7 +4831,7 @@
     </row>
     <row r="48" spans="1:8" s="25" customFormat="1">
       <c r="A48" s="29" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="25" customFormat="1">
@@ -4049,7 +4850,7 @@
     <row r="60" spans="1:7" s="29" customFormat="1"/>
     <row r="61" spans="1:7" s="2" customFormat="1">
       <c r="A61" s="3" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4063,20 +4864,20 @@
         <v>7</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="17" customFormat="1">
       <c r="A63" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="17" customFormat="1">
       <c r="A64" s="17" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>2</v>
@@ -4084,7 +4885,7 @@
     </row>
     <row r="65" spans="1:4" s="17" customFormat="1">
       <c r="A65" s="17" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>3</v>
@@ -4092,22 +4893,22 @@
     </row>
     <row r="66" spans="1:4" s="17" customFormat="1">
       <c r="A66" s="17" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="17" customFormat="1">
       <c r="A67" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="17" customFormat="1">
       <c r="A68" s="17" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="17" customFormat="1">
       <c r="B69" s="17" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>0</v>
@@ -4118,7 +4919,7 @@
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1">
       <c r="A70" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>4</v>
@@ -4127,15 +4928,15 @@
         <v>5</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="17" customFormat="1">
       <c r="A71" s="17" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>4</v>
@@ -4146,16 +4947,16 @@
     </row>
     <row r="72" spans="1:4" s="17" customFormat="1">
       <c r="A72" s="17" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4167,6 +4968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表11"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4180,7 +4982,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4191,18 +4993,18 @@
     </row>
     <row r="2" spans="1:7" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="29" customFormat="1"/>
     <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4213,12 +5015,12 @@
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1">
       <c r="A6" s="25" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1">
       <c r="A7" s="29" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1">
@@ -4226,12 +5028,12 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1">
       <c r="A10" s="29" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1">
@@ -4242,7 +5044,7 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4253,17 +5055,17 @@
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4274,55 +5076,79 @@
     </row>
     <row r="17" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1"/>
     <row r="19" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>270</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" s="29" customFormat="1"/>
-    <row r="27" spans="1:5" s="29" customFormat="1"/>
+      <c r="A25" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="29" customFormat="1">
+      <c r="A26" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="29" customFormat="1">
+      <c r="A27" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>356</v>
+      </c>
+    </row>
     <row r="28" spans="1:5" s="29" customFormat="1"/>
     <row r="29" spans="1:5" s="29" customFormat="1"/>
     <row r="30" spans="1:5" s="29" customFormat="1"/>
@@ -4331,7 +5157,7 @@
     <row r="33" spans="1:7" s="29" customFormat="1"/>
     <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="3" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4345,20 +5171,20 @@
         <v>7</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="17" customFormat="1">
       <c r="A36" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="17" customFormat="1">
       <c r="A37" s="17" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>2</v>
@@ -4366,7 +5192,7 @@
     </row>
     <row r="38" spans="1:7" s="17" customFormat="1">
       <c r="A38" s="17" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>3</v>
@@ -4374,22 +5200,22 @@
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1">
       <c r="A39" s="17" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="17" customFormat="1">
       <c r="A40" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="17" customFormat="1">
       <c r="A41" s="17" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="17" customFormat="1">
       <c r="B42" s="17" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>0</v>
@@ -4400,7 +5226,7 @@
     </row>
     <row r="43" spans="1:7" s="17" customFormat="1">
       <c r="A43" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>4</v>
@@ -4409,15 +5235,15 @@
         <v>5</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="17" customFormat="1">
       <c r="A44" s="17" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>4</v>
@@ -4428,16 +5254,16 @@
     </row>
     <row r="45" spans="1:7" s="17" customFormat="1">
       <c r="A45" s="17" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4464,26 +5290,24 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="181.5">
-      <c r="A4" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="198">
+      <c r="A4" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1">
       <c r="A5" s="3"/>
@@ -4501,7 +5325,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4511,77 +5335,77 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="132">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4594,10 +5418,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4607,27 +5431,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="66">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="2" customFormat="1">
@@ -4637,67 +5461,92 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="2" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" s="2" customFormat="1">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>21</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="2" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="2" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="2" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4719,65 +5568,65 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4793,7 +5642,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4804,58 +5653,58 @@
   <sheetData>
     <row r="1" spans="1:2" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="82.5">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="12" customFormat="1">
       <c r="A5" s="12" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
